--- a/artfynd/A 62117-2025 artfynd.xlsx
+++ b/artfynd/A 62117-2025 artfynd.xlsx
@@ -944,7 +944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131112845</v>
+        <v>131112844</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -977,7 +977,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>510982</v>
+        <v>510994</v>
       </c>
       <c r="R4" t="n">
-        <v>7037550</v>
+        <v>7037511</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1054,14 +1054,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1079,7 +1074,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131112844</v>
+        <v>131112845</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1112,7 +1107,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1122,10 +1117,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>510994</v>
+        <v>510982</v>
       </c>
       <c r="R5" t="n">
-        <v>7037511</v>
+        <v>7037550</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1162,7 +1157,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1189,9 +1184,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131112855</v>
+        <v>131112851</v>
       </c>
       <c r="B16" t="n">
-        <v>80348</v>
+        <v>58043</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2511,37 +2511,50 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Murukvisttjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>511045</v>
+        <v>511030</v>
       </c>
       <c r="R16" t="n">
-        <v>7037478</v>
+        <v>7037471</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2576,39 +2589,23 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Observation av 2 st födosökande talltitor som höll till på en grupp granar.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2626,10 +2623,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131112852</v>
+        <v>131112855</v>
       </c>
       <c r="B17" t="n">
-        <v>57881</v>
+        <v>80348</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2637,31 +2634,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2669,10 +2661,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>511154</v>
+        <v>511045</v>
       </c>
       <c r="R17" t="n">
-        <v>7037711</v>
+        <v>7037478</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2707,17 +2699,13 @@
           <t>2026-02-10</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Rejäla äldre hackspår i stambasen av en gran.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2728,22 +2716,22 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2761,10 +2749,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131112851</v>
+        <v>131112852</v>
       </c>
       <c r="B18" t="n">
-        <v>58043</v>
+        <v>57881</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2772,50 +2760,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Murukvisttjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511030</v>
+        <v>511154</v>
       </c>
       <c r="R18" t="n">
-        <v>7037471</v>
+        <v>7037711</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2852,7 +2832,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Observation av 2 st födosökande talltitor som höll till på en grupp granar.</t>
+          <t>Rejäla äldre hackspår i stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2867,6 +2847,26 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131112843</v>
+        <v>131112856</v>
       </c>
       <c r="B19" t="n">
-        <v>83223</v>
+        <v>91804</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2895,26 +2895,30 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2922,10 +2926,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>510984</v>
+        <v>511011</v>
       </c>
       <c r="R19" t="n">
-        <v>7037439</v>
+        <v>7037561</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3135,10 +3139,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131112856</v>
+        <v>131112842</v>
       </c>
       <c r="B21" t="n">
-        <v>91804</v>
+        <v>83223</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3146,30 +3150,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>511011</v>
+        <v>511092</v>
       </c>
       <c r="R21" t="n">
-        <v>7037561</v>
+        <v>7037598</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131112842</v>
+        <v>131112843</v>
       </c>
       <c r="B22" t="n">
         <v>83223</v>
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>511092</v>
+        <v>510984</v>
       </c>
       <c r="R22" t="n">
-        <v>7037598</v>
+        <v>7037439</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 62117-2025 artfynd.xlsx
+++ b/artfynd/A 62117-2025 artfynd.xlsx
@@ -944,7 +944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131112844</v>
+        <v>131112845</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -977,7 +977,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>510994</v>
+        <v>510982</v>
       </c>
       <c r="R4" t="n">
-        <v>7037511</v>
+        <v>7037550</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1054,9 +1054,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1074,7 +1079,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131112845</v>
+        <v>131112844</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1107,7 +1112,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1117,10 +1122,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>510982</v>
+        <v>510994</v>
       </c>
       <c r="R5" t="n">
-        <v>7037550</v>
+        <v>7037511</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1157,7 +1162,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1184,14 +1189,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131112847</v>
+        <v>131112860</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1874,31 +1874,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1906,10 +1901,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>511011</v>
+        <v>511032</v>
       </c>
       <c r="R11" t="n">
-        <v>7037468</v>
+        <v>7037541</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1944,17 +1939,13 @@
           <t>2026-02-10</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1993,10 +1984,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131112860</v>
+        <v>131112847</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2004,26 +1995,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2031,10 +2027,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511032</v>
+        <v>511011</v>
       </c>
       <c r="R12" t="n">
-        <v>7037541</v>
+        <v>7037468</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2069,13 +2065,17 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131112855</v>
+        <v>131112852</v>
       </c>
       <c r="B17" t="n">
-        <v>80348</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2634,26 +2634,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2661,10 +2666,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>511045</v>
+        <v>511154</v>
       </c>
       <c r="R17" t="n">
-        <v>7037478</v>
+        <v>7037711</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2699,13 +2704,17 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Rejäla äldre hackspår i stambasen av en gran.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2716,22 +2725,22 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2749,10 +2758,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131112852</v>
+        <v>131112855</v>
       </c>
       <c r="B18" t="n">
-        <v>57881</v>
+        <v>80348</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2760,31 +2769,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2792,10 +2796,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511154</v>
+        <v>511045</v>
       </c>
       <c r="R18" t="n">
-        <v>7037711</v>
+        <v>7037478</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2830,17 +2834,13 @@
           <t>2026-02-10</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Rejäla äldre hackspår i stambasen av en gran.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2851,22 +2851,22 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131112856</v>
+        <v>131112848</v>
       </c>
       <c r="B19" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2895,28 +2895,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2926,10 +2927,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511011</v>
+        <v>510963</v>
       </c>
       <c r="R19" t="n">
-        <v>7037561</v>
+        <v>7037437</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2964,13 +2965,17 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -3009,10 +3014,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131112848</v>
+        <v>131112856</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3020,29 +3025,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -3052,10 +3056,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>510963</v>
+        <v>511011</v>
       </c>
       <c r="R20" t="n">
-        <v>7037437</v>
+        <v>7037561</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3090,17 +3094,13 @@
           <t>2026-02-10</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131112842</v>
+        <v>131112843</v>
       </c>
       <c r="B21" t="n">
         <v>83223</v>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>511092</v>
+        <v>510984</v>
       </c>
       <c r="R21" t="n">
-        <v>7037598</v>
+        <v>7037439</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131112843</v>
+        <v>131112842</v>
       </c>
       <c r="B22" t="n">
         <v>83223</v>
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>510984</v>
+        <v>511092</v>
       </c>
       <c r="R22" t="n">
-        <v>7037439</v>
+        <v>7037598</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
